--- a/RuleMat.xlsx
+++ b/RuleMat.xlsx
@@ -157,6 +157,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -241,7 +242,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
